--- a/wwwroot/file/templateBilling.xlsx
+++ b/wwwroot/file/templateBilling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iei19080026\source\repos\payrollSystem\wwwroot\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888877FF-AA2F-420B-A925-538C85035BDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{876D4D71-995D-4740-8FC8-1623378E4D75}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{086BBEAF-096C-462B-8C9D-814E9F5FAC31}"/>
   </bookViews>
@@ -90,9 +90,6 @@
     <t>Overtime</t>
   </si>
   <si>
-    <t>Apresiasi</t>
-  </si>
-  <si>
     <t>Subtotal</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Potongan</t>
+  </si>
+  <si>
+    <t>Tunjangan Pulsa</t>
   </si>
 </sst>
 </file>
@@ -118,7 +118,7 @@
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$Rp-421]* #,##0.00_-;\-[$Rp-421]* #,##0.00_-;_-[$Rp-421]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -365,61 +365,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="4" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="4" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="4" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -750,10 +750,10 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="6" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,102 +764,102 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="8" width="14.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="12" style="20" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="20" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="20" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="20" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="20" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="11" style="20" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" style="20" customWidth="1"/>
-    <col min="19" max="20" width="11.5703125" style="20" customWidth="1"/>
+    <col min="7" max="8" width="14.28515625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12" style="18" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="18" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="18" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="18" customWidth="1"/>
+    <col min="16" max="16" width="11.7109375" style="18" customWidth="1"/>
+    <col min="17" max="17" width="11" style="18" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="18" customWidth="1"/>
+    <col min="19" max="20" width="11.5703125" style="18" customWidth="1"/>
     <col min="21" max="21" width="12.42578125" customWidth="1"/>
     <col min="22" max="22" width="12.28515625" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" style="20" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" style="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
       <c r="U1" s="3"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="17"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
-      <c r="W2" s="17"/>
+      <c r="W2" s="15"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
       <c r="U3" s="3"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="17"/>
+      <c r="W3" s="15"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -868,23 +868,23 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
       <c r="U4" s="3"/>
       <c r="V4" s="1"/>
-      <c r="W4" s="17"/>
+      <c r="W4" s="15"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
@@ -893,23 +893,23 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
       <c r="U5" s="3"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="17"/>
+      <c r="W5" s="15"/>
     </row>
     <row r="6" spans="1:23" ht="24.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -930,56 +930,56 @@
       <c r="F6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="25" t="s">
+      <c r="R6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="S6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="T6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="29" t="s">
+      <c r="U6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="12" t="s">
+      <c r="V6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="13" t="s">
+      <c r="W6" s="28" t="s">
         <v>24</v>
-      </c>
-      <c r="W6" s="30" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
